--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2104153.985129908</v>
+        <v>2102266.403613506</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800618</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>39.80765344113824</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>96.36136743208931</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>37.83808333974897</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>115.9118647420297</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>208.4621681245751</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.46389722690851</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>15.36179214328587</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>66.58496257157077</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>127.0044127072324</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.32882004050031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>93.02703711889683</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>155.2571210980838</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1816,16 +1816,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>161.4562518681537</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.633341602776254</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>39.11561436815826</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>61.86209105104142</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065117</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>6.920953078876939</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,19 +2527,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>216.2479102458283</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>158.7375070912846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151916</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>127.7178027211456</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274077</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752357</v>
+        <v>54.76109577523563</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>116.2852983777134</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>115.3693035604205</v>
       </c>
     </row>
     <row r="32">
@@ -3193,7 +3193,7 @@
         <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692802</v>
       </c>
       <c r="F34" t="n">
         <v>77.28915789329059</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.156396867425</v>
+        <v>1175.00952757579</v>
       </c>
       <c r="C2" t="n">
-        <v>1667.156396867425</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.890698260674</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>923.1024456624298</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>512.1165408728223</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>94.15273277100914</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1565.148859551602</v>
       </c>
       <c r="Y2" t="n">
-        <v>1667.156396867425</v>
+        <v>1175.00952757579</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661918</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="6">
@@ -4647,16 +4647,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1760.851696582593</v>
+        <v>546.1098286224626</v>
       </c>
       <c r="C8" t="n">
-        <v>1391.889179642181</v>
+        <v>546.1098286224626</v>
       </c>
       <c r="D8" t="n">
-        <v>1033.623481035431</v>
+        <v>546.1098286224626</v>
       </c>
       <c r="E8" t="n">
-        <v>647.8352284371863</v>
+        <v>546.1098286224626</v>
       </c>
       <c r="F8" t="n">
-        <v>236.8493236475787</v>
+        <v>539.1643278732591</v>
       </c>
       <c r="G8" t="n">
-        <v>222.9259195861696</v>
+        <v>121.200519771446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>121.200519771446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548714</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862884</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834947</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.546461473039</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646714</v>
+        <v>1662.483574129468</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646714</v>
+        <v>1309.714918859354</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.451536646714</v>
+        <v>936.2491605982743</v>
       </c>
       <c r="Y8" t="n">
-        <v>2147.451536646714</v>
+        <v>546.1098286224626</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.8857516585174</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286574</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832254</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832254</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832254</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>182.2302673832254</v>
       </c>
       <c r="Y10" t="n">
-        <v>701.5342164887571</v>
+        <v>182.2302673832254</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,16 +5024,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,10 +5042,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5057,19 +5057,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5084,7 +5084,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>474.7746905116418</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>721.5398184181058</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>395.5481934947356</v>
+        <v>510.2366179610303</v>
       </c>
       <c r="C13" t="n">
-        <v>395.5481934947356</v>
+        <v>341.3004350331234</v>
       </c>
       <c r="D13" t="n">
-        <v>395.5481934947356</v>
+        <v>191.1837956207877</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1342.090895711353</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1342.090895711353</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V13" t="n">
-        <v>1087.406407505466</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W13" t="n">
-        <v>797.9892374685055</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="X13" t="n">
-        <v>797.9892374685055</v>
+        <v>731.0291971045605</v>
       </c>
       <c r="Y13" t="n">
-        <v>577.1966583249754</v>
+        <v>510.2366179610303</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5261,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>261.8048459311032</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>410.874530133163</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>1024.771599890052</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1046.700508672316</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W16" t="n">
-        <v>1046.700508672316</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>818.7109577742983</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.9183786307682</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,10 +5531,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>190.6805289025653</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N18" t="n">
-        <v>1632.773754790662</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>136.7278130442836</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,13 +5674,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609666</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>923.515255903349</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W19" t="n">
-        <v>634.0980858663885</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X19" t="n">
-        <v>634.0980858663885</v>
+        <v>357.5203921878137</v>
       </c>
       <c r="Y19" t="n">
-        <v>413.3055067228584</v>
+        <v>136.7278130442836</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,28 +5829,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>709.451253618899</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>420.0340835819384</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>413.0432218861031</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,46 +5987,46 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>380.9740019042123</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>397.7517393246783</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7517393246783</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.063975947119</v>
@@ -6160,7 +6160,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>791.435389115469</v>
       </c>
       <c r="V25" t="n">
-        <v>625.7412902226956</v>
+        <v>536.7509009095821</v>
       </c>
       <c r="W25" t="n">
-        <v>625.7412902226956</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="X25" t="n">
-        <v>397.7517393246783</v>
+        <v>247.3337308726215</v>
       </c>
       <c r="Y25" t="n">
-        <v>397.7517393246783</v>
+        <v>247.3337308726215</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,7 +6242,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6382,16 +6382,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241961</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,31 +6400,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6443,25 +6443,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>315.6192635197074</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
         <v>2612.943493278838</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227164</v>
+        <v>488.0294937553484</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761803</v>
+        <v>374.8541761088124</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452153</v>
+        <v>280.4984019778475</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441929</v>
+        <v>188.3461736768253</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1880.81182489927</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1712.787274970147</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1479.419501465076</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1280.49587854056</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.83957378497</v>
+        <v>902.6804289818945</v>
       </c>
       <c r="X31" t="n">
-        <v>929.3796764337444</v>
+        <v>730.451743365248</v>
       </c>
       <c r="Y31" t="n">
-        <v>764.3479625715852</v>
+        <v>613.9170933042172</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,16 +6856,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028562</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7166,58 +7166,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2520.760934363148</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7424,13 +7424,13 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504514</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,10 +7588,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7646,16 +7646,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
         <v>3183.709822619129</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8307,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>359.9065542451776</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,16 +8769,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>124.340078086323</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>52.49733361305233</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>29.47535963978268</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>94.13752431970605</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,19 +9963,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>28.12263706263042</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,10 +10349,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>18.73797368291389</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>297.2466435761029</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622872</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,13 +11385,13 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>274.3657496970646</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>53.40692552767235</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>66.29043996030549</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23704,16 +23704,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>90.68139145567429</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>282.8896567338148</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>107.3183482784109</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>190.2755522727866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518776</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>211.6637002732178</v>
       </c>
     </row>
     <row r="23">
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,19 +24415,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.299650812560938</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>93.40013623254345</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>124.4198406026824</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>54.22110038276664</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>48.01209316311714</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862099.292332369</v>
+        <v>862099.2923323691</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896054.4091886259</v>
+        <v>896054.4091886258</v>
       </c>
     </row>
     <row r="12">
@@ -26314,25 +26314,25 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
         <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
         <v>527889.2306459069</v>
@@ -26341,19 +26341,19 @@
         <v>549209.8854161142</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583906</v>
       </c>
       <c r="M2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="N2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583906</v>
       </c>
       <c r="O2" t="n">
         <v>554203.1946583907</v>
       </c>
       <c r="P2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284574</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086684</v>
+        <v>10342.90680086679</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284566</v>
+        <v>44162.60530284574</v>
       </c>
     </row>
     <row r="4">
@@ -26421,16 +26421,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687071</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687072</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,10 +26439,10 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106728</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
@@ -26451,10 +26451,10 @@
         <v>44593.39482819119</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.3948281912</v>
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,13 +26482,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
@@ -26503,7 +26503,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284256.6304060871</v>
+        <v>-284256.630406087</v>
       </c>
       <c r="C6" t="n">
-        <v>305711.2488084573</v>
+        <v>305711.2488084574</v>
       </c>
       <c r="D6" t="n">
-        <v>305711.2488084571</v>
+        <v>305711.2488084576</v>
       </c>
       <c r="E6" t="n">
-        <v>-111432.7393665767</v>
+        <v>-111530.1984925491</v>
       </c>
       <c r="F6" t="n">
-        <v>413727.2971103195</v>
+        <v>413629.8379843475</v>
       </c>
       <c r="G6" t="n">
-        <v>413727.2971103194</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="H6" t="n">
-        <v>413727.2971103195</v>
+        <v>413629.8379843473</v>
       </c>
       <c r="I6" t="n">
-        <v>413727.2971103194</v>
+        <v>413629.8379843474</v>
       </c>
       <c r="J6" t="n">
-        <v>237304.0779177267</v>
+        <v>237206.6187917545</v>
       </c>
       <c r="K6" t="n">
-        <v>368079.8414819784</v>
+        <v>368061.3477440441</v>
       </c>
       <c r="L6" t="n">
-        <v>401551.7872093073</v>
+        <v>401551.7872093072</v>
       </c>
       <c r="M6" t="n">
-        <v>277093.6787763372</v>
+        <v>277093.6787763373</v>
       </c>
       <c r="N6" t="n">
-        <v>411894.6940101741</v>
+        <v>411894.694010174</v>
       </c>
       <c r="O6" t="n">
         <v>411894.6940101741</v>
       </c>
       <c r="P6" t="n">
-        <v>367732.0887073287</v>
+        <v>367732.0887073285</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26722,10 +26722,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108348</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>284.1151193232189</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>273.3697332463797</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5829646831823</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>136.2257785817984</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>146.2208734961079</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>141.7069916148866</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>56.01837628787189</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>308.5609806210713</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.34635367329054</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>52.82756747470494</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,10 +28062,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>192.2558333115945</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -30229,10 +30229,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>439.8839133355141</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>339.4611332181801</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35507,10 +35507,10 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>166.2502570412296</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315246</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>94.40751256795902</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>244.7129629076453</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36683,19 +36683,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>373.6013019241296</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>178.6980756505696</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>10.73738595686864</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412262</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043185</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
         <v>805.3296502221116</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>225.8313886144385</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>630.4412169741157</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313028</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38026,7 +38026,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38105,13 +38105,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>607.5603230950775</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
